--- a/09/WebSG_cea_09. 3-tier configuration.xlsx
+++ b/09/WebSG_cea_09. 3-tier configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이윤재\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF91BE49-8714-4739-AF23-033DBAC8013B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A2E2C4-6A91-4154-8A97-18211C61F375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SecurityGroupRule_List (2)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Outbound</t>
   </si>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>192.168.254.2</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>80, 443</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1186,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1350,8 +1354,8 @@
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="17">
-        <v>80443</v>
+      <c r="E7" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
